--- a/PR form.xlsx
+++ b/PR form.xlsx
@@ -110,7 +110,7 @@
     <t>pr</t>
   </si>
   <si>
-    <t>C&amp;C</t>
+    <t>JNJ</t>
   </si>
   <si>
     <t>Central</t>
@@ -119,13 +119,13 @@
     <t>499C0R9</t>
   </si>
   <si>
-    <t>00045817005826</t>
-  </si>
-  <si>
-    <t>CME_CB0752</t>
-  </si>
-  <si>
-    <t>88124XSC</t>
+    <t>00045816016625</t>
+  </si>
+  <si>
+    <t>CME_CW0899</t>
+  </si>
+  <si>
+    <t>88124XSX</t>
   </si>
   <si>
     <t>ENGINEERING_SERVICE</t>
@@ -137,7 +137,7 @@
     <t>HARDWARE_INSTALLATION</t>
   </si>
   <si>
-    <t>Colo0407: DBS Board (1 System), No Power System, 3RRU, No Antenna and Feeder/SITE</t>
+    <t>New0240: DBS (1 System), Power System, 3RRU, 3 Antenna, No Feeder/SITE</t>
   </si>
   <si>
     <t>SITE</t>
@@ -158,16 +158,16 @@
     <t>tender</t>
   </si>
   <si>
-    <t>88124XNQ</t>
-  </si>
-  <si>
-    <t>BTS0701_Replacement: Battery/Rectifier &amp; Packing/SITE</t>
-  </si>
-  <si>
-    <t>88129UHD</t>
-  </si>
-  <si>
-    <t>BTS0332_Swap: Swap Antenna_Three sector/SITE</t>
+    <t xml:space="preserve">88124XUE </t>
+  </si>
+  <si>
+    <t>GPS Antenna Installation (With Main Equipment)/SITE</t>
+  </si>
+  <si>
+    <t>88124XUL</t>
+  </si>
+  <si>
+    <t>6 Filter Installation (With Main Equipment)/SITE</t>
   </si>
 </sst>
 </file>
@@ -619,11 +619,11 @@
     <col min="8" max="8" width="19.995117" bestFit="true" customWidth="true" style="1"/>
     <col min="9" max="9" width="22.280273" bestFit="true" customWidth="true" style="1"/>
     <col min="10" max="10" width="12.854004" bestFit="true" customWidth="true" style="1"/>
-    <col min="11" max="11" width="10.568848" bestFit="true" customWidth="true" style="1"/>
+    <col min="11" max="11" width="11.711426" bestFit="true" customWidth="true" style="1"/>
     <col min="12" max="12" width="23.422852" bestFit="true" customWidth="true" style="1"/>
     <col min="13" max="13" width="35.2771" bestFit="true" customWidth="true" style="1"/>
     <col min="14" max="14" width="25.85083" bestFit="true" customWidth="true" style="1"/>
-    <col min="15" max="15" width="96.690674" bestFit="true" customWidth="true" style="1"/>
+    <col min="15" max="15" width="83.693848" bestFit="true" customWidth="true" style="1"/>
     <col min="16" max="16" width="5.855713" bestFit="true" customWidth="true" style="1"/>
     <col min="17" max="17" width="5.855713" bestFit="true" customWidth="true" style="1"/>
     <col min="18" max="18" width="25.85083" bestFit="true" customWidth="true" style="1"/>

--- a/PR form.xlsx
+++ b/PR form.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
   <si>
     <t>Malaysia PR REQUEST TEMPLATE</t>
   </si>
@@ -104,13 +104,7 @@
     <t>Service Product</t>
   </si>
   <si>
-    <t>requestor</t>
-  </si>
-  <si>
-    <t>pr</t>
-  </si>
-  <si>
-    <t>JNJ</t>
+    <t>Areno</t>
   </si>
   <si>
     <t>Central</t>
@@ -119,13 +113,13 @@
     <t>499C0R9</t>
   </si>
   <si>
-    <t>00045816016625</t>
-  </si>
-  <si>
-    <t>CME_CW0899</t>
-  </si>
-  <si>
-    <t>88124XSX</t>
+    <t>00045815028322</t>
+  </si>
+  <si>
+    <t>CME_CB0752</t>
+  </si>
+  <si>
+    <t>88124XSC</t>
   </si>
   <si>
     <t>ENGINEERING_SERVICE</t>
@@ -137,7 +131,7 @@
     <t>HARDWARE_INSTALLATION</t>
   </si>
   <si>
-    <t>New0240: DBS (1 System), Power System, 3RRU, 3 Antenna, No Feeder/SITE</t>
+    <t>Colo0407: DBS Board (1 System), No Power System, 3RRU, No Antenna and Feeder/SITE</t>
   </si>
   <si>
     <t>SITE</t>
@@ -152,22 +146,43 @@
     <t>BTS3900 LTE</t>
   </si>
   <si>
-    <t>department</t>
-  </si>
-  <si>
-    <t>tender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88124XUE </t>
-  </si>
-  <si>
-    <t>GPS Antenna Installation (With Main Equipment)/SITE</t>
-  </si>
-  <si>
-    <t>88124XUL</t>
-  </si>
-  <si>
-    <t>6 Filter Installation (With Main Equipment)/SITE</t>
+    <t>88124XNQ</t>
+  </si>
+  <si>
+    <t>BTS0701_Replacement: Battery/Rectifier &amp; Packing/SITE</t>
+  </si>
+  <si>
+    <t>88129UHD</t>
+  </si>
+  <si>
+    <t>BTS0332_Swap: Swap Antenna_Three sector/SITE</t>
+  </si>
+  <si>
+    <t>HTT</t>
+  </si>
+  <si>
+    <t>00045817005826</t>
+  </si>
+  <si>
+    <t>8812061452</t>
+  </si>
+  <si>
+    <t>Not found</t>
+  </si>
+  <si>
+    <t>8812071405</t>
+  </si>
+  <si>
+    <t>00045816016723</t>
+  </si>
+  <si>
+    <t>88124XMB</t>
+  </si>
+  <si>
+    <t>88124XMF</t>
+  </si>
+  <si>
+    <t>BTS0401_Expansion: BBU/Board/SITE</t>
   </si>
 </sst>
 </file>
@@ -601,10 +616,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:Z13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="Z7" sqref="Z7:Z7"/>
+      <selection activeCell="Z13" sqref="Z13:Z13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -619,12 +634,12 @@
     <col min="8" max="8" width="19.995117" bestFit="true" customWidth="true" style="1"/>
     <col min="9" max="9" width="22.280273" bestFit="true" customWidth="true" style="1"/>
     <col min="10" max="10" width="12.854004" bestFit="true" customWidth="true" style="1"/>
-    <col min="11" max="11" width="11.711426" bestFit="true" customWidth="true" style="1"/>
+    <col min="11" max="11" width="12.854004" bestFit="true" customWidth="true" style="1"/>
     <col min="12" max="12" width="23.422852" bestFit="true" customWidth="true" style="1"/>
     <col min="13" max="13" width="35.2771" bestFit="true" customWidth="true" style="1"/>
     <col min="14" max="14" width="25.85083" bestFit="true" customWidth="true" style="1"/>
-    <col min="15" max="15" width="83.693848" bestFit="true" customWidth="true" style="1"/>
-    <col min="16" max="16" width="5.855713" bestFit="true" customWidth="true" style="1"/>
+    <col min="15" max="15" width="96.690674" bestFit="true" customWidth="true" style="1"/>
+    <col min="16" max="16" width="11.711426" bestFit="true" customWidth="true" style="1"/>
     <col min="17" max="17" width="5.855713" bestFit="true" customWidth="true" style="1"/>
     <col min="18" max="18" width="25.85083" bestFit="true" customWidth="true" style="1"/>
     <col min="19" max="19" width="24.708252" bestFit="true" customWidth="true" style="1"/>
@@ -785,60 +800,56 @@
       <c r="A5" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="E5" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>32</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11">
         <v>5622128</v>
       </c>
       <c r="H5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="K5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="L5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="M5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="N5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="O5" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="P5" s="11" t="s">
         <v>39</v>
-      </c>
-      <c r="O5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="P5" s="11" t="s">
-        <v>41</v>
       </c>
       <c r="Q5" s="11">
         <v>1</v>
       </c>
       <c r="R5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="S5" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="T5" s="11" t="s">
         <v>42</v>
-      </c>
-      <c r="S5" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="T5" s="11" t="s">
-        <v>44</v>
       </c>
       <c r="U5" s="11">
         <v>6072600</v>
@@ -848,71 +859,63 @@
       </c>
       <c r="W5" s="11"/>
       <c r="X5" s="11"/>
-      <c r="Y5" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z5" s="11" t="s">
-        <v>46</v>
-      </c>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="11">
         <v>2</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="E6" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>32</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11">
         <v>5622128</v>
       </c>
       <c r="H6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="11" t="s">
+      <c r="K6" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="L6" s="11" t="s">
+      <c r="M6" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="M6" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="N6" s="11" t="s">
+      <c r="O6" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="P6" s="11" t="s">
         <v>39</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="P6" s="11" t="s">
-        <v>41</v>
       </c>
       <c r="Q6" s="11">
         <v>1</v>
       </c>
       <c r="R6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="S6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="T6" s="11" t="s">
         <v>42</v>
-      </c>
-      <c r="S6" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="T6" s="11" t="s">
-        <v>44</v>
       </c>
       <c r="U6" s="11">
         <v>6072600</v>
@@ -922,71 +925,63 @@
       </c>
       <c r="W6" s="11"/>
       <c r="X6" s="11"/>
-      <c r="Y6" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z6" s="11" t="s">
-        <v>46</v>
-      </c>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="11">
         <v>3</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="E7" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>32</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11">
         <v>5622128</v>
       </c>
       <c r="H7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="11" t="s">
+      <c r="K7" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="L7" s="11" t="s">
+      <c r="M7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="M7" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="N7" s="11" t="s">
+      <c r="O7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="11" t="s">
         <v>39</v>
-      </c>
-      <c r="O7" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="P7" s="11" t="s">
-        <v>41</v>
       </c>
       <c r="Q7" s="11">
         <v>1</v>
       </c>
       <c r="R7" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="S7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="T7" s="11" t="s">
         <v>42</v>
-      </c>
-      <c r="S7" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="T7" s="11" t="s">
-        <v>44</v>
       </c>
       <c r="U7" s="11">
         <v>6072600</v>
@@ -996,12 +991,404 @@
       </c>
       <c r="W7" s="11"/>
       <c r="X7" s="11"/>
-      <c r="Y7" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z7" s="11" t="s">
-        <v>46</v>
-      </c>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" s="11">
+        <v>4</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11">
+        <v>5622128</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>1</v>
+      </c>
+      <c r="R8" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="S8" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="T8" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="U8" s="11">
+        <v>6072600</v>
+      </c>
+      <c r="V8" s="11">
+        <v>9221180</v>
+      </c>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" s="11">
+        <v>5</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11">
+        <v>5622128</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>1</v>
+      </c>
+      <c r="R9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="S9" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="T9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="U9" s="11">
+        <v>6072600</v>
+      </c>
+      <c r="V9" s="11">
+        <v>9221180</v>
+      </c>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" s="11">
+        <v>6</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11">
+        <v>5622128</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="P10" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>1</v>
+      </c>
+      <c r="R10" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="S10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="T10" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="U10" s="11">
+        <v>6072600</v>
+      </c>
+      <c r="V10" s="11">
+        <v>9221180</v>
+      </c>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" s="11">
+        <v>7</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11">
+        <v>5622128</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="O11" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="P11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>1</v>
+      </c>
+      <c r="R11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="S11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="T11" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="U11" s="11">
+        <v>6072600</v>
+      </c>
+      <c r="V11" s="11">
+        <v>9221180</v>
+      </c>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" s="11">
+        <v>8</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11">
+        <v>5622128</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="N12" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="O12" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="P12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q12" s="11">
+        <v>1</v>
+      </c>
+      <c r="R12" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="S12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="T12" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="U12" s="11">
+        <v>6072600</v>
+      </c>
+      <c r="V12" s="11">
+        <v>9221180</v>
+      </c>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" s="11">
+        <v>9</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11">
+        <v>5622128</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="O13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="P13" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>1</v>
+      </c>
+      <c r="R13" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="S13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="T13" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="U13" s="11">
+        <v>6072600</v>
+      </c>
+      <c r="V13" s="11">
+        <v>9221180</v>
+      </c>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/PR form.xlsx
+++ b/PR form.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>Malaysia PR REQUEST TEMPLATE</t>
   </si>
@@ -104,7 +104,13 @@
     <t>Service Product</t>
   </si>
   <si>
-    <t>Areno</t>
+    <t>requestor</t>
+  </si>
+  <si>
+    <t>pr</t>
+  </si>
+  <si>
+    <t>FTK</t>
   </si>
   <si>
     <t>Central</t>
@@ -113,28 +119,16 @@
     <t>499C0R9</t>
   </si>
   <si>
-    <t>00045815028322</t>
-  </si>
-  <si>
-    <t>CME_CB0752</t>
-  </si>
-  <si>
-    <t>88124XSC</t>
-  </si>
-  <si>
-    <t>ENGINEERING_SERVICE</t>
-  </si>
-  <si>
-    <t>TELECOM_EQUIPMENT_ENGINEERING</t>
-  </si>
-  <si>
-    <t>HARDWARE_INSTALLATION</t>
-  </si>
-  <si>
-    <t>Colo0407: DBS Board (1 System), No Power System, 3RRU, No Antenna and Feeder/SITE</t>
-  </si>
-  <si>
-    <t>SITE</t>
+    <t>00045817005827</t>
+  </si>
+  <si>
+    <t>CME_CB0755</t>
+  </si>
+  <si>
+    <t>88124XSX</t>
+  </si>
+  <si>
+    <t>Not found</t>
   </si>
   <si>
     <t>Carrier Network - LTE</t>
@@ -146,43 +140,13 @@
     <t>BTS3900 LTE</t>
   </si>
   <si>
-    <t>88124XNQ</t>
-  </si>
-  <si>
-    <t>BTS0701_Replacement: Battery/Rectifier &amp; Packing/SITE</t>
-  </si>
-  <si>
-    <t>88129UHD</t>
-  </si>
-  <si>
-    <t>BTS0332_Swap: Swap Antenna_Three sector/SITE</t>
-  </si>
-  <si>
-    <t>HTT</t>
-  </si>
-  <si>
-    <t>00045817005826</t>
-  </si>
-  <si>
-    <t>8812061452</t>
-  </si>
-  <si>
-    <t>Not found</t>
-  </si>
-  <si>
-    <t>8812071405</t>
-  </si>
-  <si>
-    <t>00045816016723</t>
-  </si>
-  <si>
-    <t>88124XMB</t>
-  </si>
-  <si>
-    <t>88124XMF</t>
-  </si>
-  <si>
-    <t>BTS0401_Expansion: BBU/Board/SITE</t>
+    <t>department</t>
+  </si>
+  <si>
+    <t>tender</t>
+  </si>
+  <si>
+    <t>88124XUE</t>
   </si>
 </sst>
 </file>
@@ -616,10 +580,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Z13"/>
+  <dimension ref="A1:Z6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="Z13" sqref="Z13:Z13"/>
+      <selection activeCell="Z6" sqref="Z6:Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -634,11 +598,11 @@
     <col min="8" max="8" width="19.995117" bestFit="true" customWidth="true" style="1"/>
     <col min="9" max="9" width="22.280273" bestFit="true" customWidth="true" style="1"/>
     <col min="10" max="10" width="12.854004" bestFit="true" customWidth="true" style="1"/>
-    <col min="11" max="11" width="12.854004" bestFit="true" customWidth="true" style="1"/>
-    <col min="12" max="12" width="23.422852" bestFit="true" customWidth="true" style="1"/>
-    <col min="13" max="13" width="35.2771" bestFit="true" customWidth="true" style="1"/>
-    <col min="14" max="14" width="25.85083" bestFit="true" customWidth="true" style="1"/>
-    <col min="15" max="15" width="96.690674" bestFit="true" customWidth="true" style="1"/>
+    <col min="11" max="11" width="10.568848" bestFit="true" customWidth="true" style="1"/>
+    <col min="12" max="12" width="11.711426" bestFit="true" customWidth="true" style="1"/>
+    <col min="13" max="13" width="11.711426" bestFit="true" customWidth="true" style="1"/>
+    <col min="14" max="14" width="18.709717" bestFit="true" customWidth="true" style="1"/>
+    <col min="15" max="15" width="15.281982" bestFit="true" customWidth="true" style="1"/>
     <col min="16" max="16" width="11.711426" bestFit="true" customWidth="true" style="1"/>
     <col min="17" max="17" width="5.855713" bestFit="true" customWidth="true" style="1"/>
     <col min="18" max="18" width="25.85083" bestFit="true" customWidth="true" style="1"/>
@@ -800,56 +764,60 @@
       <c r="A5" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
+      <c r="B5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="D5" s="11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11">
         <v>5622128</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N5" s="11" t="s">
         <v>37</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q5" s="11">
         <v>1</v>
       </c>
       <c r="R5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="S5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="T5" s="11" t="s">
         <v>40</v>
-      </c>
-      <c r="S5" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="T5" s="11" t="s">
-        <v>42</v>
       </c>
       <c r="U5" s="11">
         <v>6072600</v>
@@ -859,63 +827,71 @@
       </c>
       <c r="W5" s="11"/>
       <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11"/>
+      <c r="Y5" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z5" s="11" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="11">
         <v>2</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="D6" s="11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11">
         <v>5622128</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>43</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N6" s="11" t="s">
         <v>37</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q6" s="11">
         <v>1</v>
       </c>
       <c r="R6" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="S6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="T6" s="11" t="s">
         <v>40</v>
-      </c>
-      <c r="S6" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="T6" s="11" t="s">
-        <v>42</v>
       </c>
       <c r="U6" s="11">
         <v>6072600</v>
@@ -925,470 +901,12 @@
       </c>
       <c r="W6" s="11"/>
       <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-    </row>
-    <row r="7" spans="1:26">
-      <c r="A7" s="11">
-        <v>3</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11">
-        <v>5622128</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="M7" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="N7" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="O7" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="P7" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" s="11">
-        <v>1</v>
-      </c>
-      <c r="R7" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="S7" s="11" t="s">
+      <c r="Y6" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="T7" s="11" t="s">
+      <c r="Z6" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="U7" s="11">
-        <v>6072600</v>
-      </c>
-      <c r="V7" s="11">
-        <v>9221180</v>
-      </c>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
-    </row>
-    <row r="8" spans="1:26">
-      <c r="A8" s="11">
-        <v>4</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11">
-        <v>5622128</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="M8" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="N8" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="O8" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="P8" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q8" s="11">
-        <v>1</v>
-      </c>
-      <c r="R8" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="S8" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="T8" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="U8" s="11">
-        <v>6072600</v>
-      </c>
-      <c r="V8" s="11">
-        <v>9221180</v>
-      </c>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
-    </row>
-    <row r="9" spans="1:26">
-      <c r="A9" s="11">
-        <v>5</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11">
-        <v>5622128</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="M9" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="N9" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="O9" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="P9" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q9" s="11">
-        <v>1</v>
-      </c>
-      <c r="R9" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="S9" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="T9" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="U9" s="11">
-        <v>6072600</v>
-      </c>
-      <c r="V9" s="11">
-        <v>9221180</v>
-      </c>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="11"/>
-    </row>
-    <row r="10" spans="1:26">
-      <c r="A10" s="11">
-        <v>6</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11">
-        <v>5622128</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="N10" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="O10" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="P10" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q10" s="11">
-        <v>1</v>
-      </c>
-      <c r="R10" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="S10" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="T10" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="U10" s="11">
-        <v>6072600</v>
-      </c>
-      <c r="V10" s="11">
-        <v>9221180</v>
-      </c>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="11"/>
-    </row>
-    <row r="11" spans="1:26">
-      <c r="A11" s="11">
-        <v>7</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11">
-        <v>5622128</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="N11" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="O11" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="P11" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q11" s="11">
-        <v>1</v>
-      </c>
-      <c r="R11" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="S11" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="T11" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="U11" s="11">
-        <v>6072600</v>
-      </c>
-      <c r="V11" s="11">
-        <v>9221180</v>
-      </c>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="11"/>
-    </row>
-    <row r="12" spans="1:26">
-      <c r="A12" s="11">
-        <v>8</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11">
-        <v>5622128</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="L12" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="M12" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="N12" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="O12" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="P12" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q12" s="11">
-        <v>1</v>
-      </c>
-      <c r="R12" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="S12" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="T12" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="U12" s="11">
-        <v>6072600</v>
-      </c>
-      <c r="V12" s="11">
-        <v>9221180</v>
-      </c>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="11"/>
-    </row>
-    <row r="13" spans="1:26">
-      <c r="A13" s="11">
-        <v>9</v>
-      </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11">
-        <v>5622128</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="M13" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="N13" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="O13" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="P13" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q13" s="11">
-        <v>1</v>
-      </c>
-      <c r="R13" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="S13" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="T13" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="U13" s="11">
-        <v>6072600</v>
-      </c>
-      <c r="V13" s="11">
-        <v>9221180</v>
-      </c>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="11"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
